--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/67/incorrect_predictions_67.xlsx
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff,</t>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-17</t>
+          <t>0-27</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>The aircraft is moving</t>
+          <t>Capture Failed</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cannot shoot panorama</t>
+          <t>The aircraft is moving</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem3/67/incorrect_predictions_67.xlsx
@@ -646,12 +646,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist Contact DJI Support for assistance</t>
+          <t>Check whether propellers are installed correctly If the propellers are installed correctly and the aircraft still cannot takeoff,</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-27</t>
+          <t>0-17</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,12 +671,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Capture Failed</t>
+          <t>The aircraft is moving</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The aircraft is moving</t>
+          <t>Cannot shoot panorama</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2-5</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
